--- a/biology/Histoire de la zoologie et de la botanique/Famille_Chaffanjon/Famille_Chaffanjon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Famille_Chaffanjon/Famille_Chaffanjon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La famille Chaffanjon est une famille française, originaire de Villefranche-sur-Saône.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Liens de filiation entre les personnalités notoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Chaffanjon (1854-1913), professeur d'histoire naturelle, explorateur. En 1880, il épouse Claudine Maurin (1862-1882) puis, veuf, épouse en secondes noces Blanche Louise Moreau.
@@ -575,7 +591,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis sa première édition en 2014, le Prix Philippe Chaffanjon récompense tous les ans au printemps deux reportages de terrain, un publié sur un site de presse français et l'autre sur un site de presse haïtien. Il est présidé par Camille Chaffanjon et Florence Aubenas préside le jury.
 </t>
